--- a/data/HR1/A_KPC_35_3/A_KPC_35_3_2040.xlsx
+++ b/data/HR1/A_KPC_35_3/A_KPC_35_3_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED820C-86B8-4B27-9582-19EB09952386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626BFF7B-CF94-4BCC-A441-110521896433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,16 +175,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
@@ -3299,7 +3299,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
@@ -4338,11 +4338,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4614,7 +4614,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -4654,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -12327,99 +12327,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9894488534994341</v>
+        <v>6.2905039681494905</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8826852917290955</v>
+        <v>6.1944167625561857</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6623695555962943</v>
+        <v>5.996132600036665</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.574425261910279</v>
+        <v>5.9169827357192517</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4953265215058291</v>
+        <v>5.8457938693552469</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5508053369786916</v>
+        <v>5.8957248032808227</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4548125222199415</v>
+        <v>5.8093312699979469</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.562578109075023</v>
+        <v>6.8063202981675204</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0505300491203808</v>
+        <v>7.2454770442083438</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0261333865440871</v>
+        <v>7.2235200478896786</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8910861987477476</v>
+        <v>7.1019775788729733</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9419091578847931</v>
+        <v>7.1477182420963139</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1602502443723264</v>
+        <v>7.344225219935093</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1019426121058586</v>
+        <v>7.2917483508952738</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.606049996688208</v>
+        <v>6.8454449970193876</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7974961806704268</v>
+        <v>7.0177465626033841</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8891375851775418</v>
+        <v>7.1002238266597884</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6622725726188543</v>
+        <v>6.896045315356969</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3479181873977817</v>
+        <v>6.6131263686580031</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3137973506848333</v>
+        <v>6.5824176156163503</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2880623557182824</v>
+        <v>6.5592561201464541</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1522291294241089</v>
+        <v>6.4370062164816977</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.684752439439662</v>
+        <v>6.0162771954956966</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4936313354665307</v>
+        <v>5.8442682019198777</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12428,99 +12428,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6112633445345677</v>
+        <v>1.4501370100811108</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5110379668277312</v>
+        <v>1.3599341701449581</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4469370553116803</v>
+        <v>1.3022433497805124</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3252876616039135</v>
+        <v>1.1927588954435224</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2835754070106222</v>
+        <v>1.15521786630956</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3245644640420331</v>
+        <v>1.1921080176378298</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.415485883076554</v>
+        <v>1.2739372947688987</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8642511230547314</v>
+        <v>1.6778260107492584</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0759927590190075</v>
+        <v>1.8683934831171065</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2355043947353024</v>
+        <v>2.0119539552617725</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0813522168044325</v>
+        <v>1.8732169951239894</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1551779851247619</v>
+        <v>1.9396601866122858</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1503954367267974</v>
+        <v>1.9353558930541179</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0664179233577777</v>
+        <v>1.859776131022</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7945893391816452</v>
+        <v>1.6151304052634807</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.836705981610131</v>
+        <v>1.6530353834491178</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9129311174895449</v>
+        <v>1.7216380057405904</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9096363228244302</v>
+        <v>1.7186726905419873</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0074894108059333</v>
+        <v>1.80674046972534</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1461829315794936</v>
+        <v>1.9315646384215446</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2370839021537252</v>
+        <v>2.013375511938353</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1123042564086205</v>
+        <v>1.9010738307677586</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8331768188628166</v>
+        <v>1.6498591369765347</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6490780799793323</v>
+        <v>1.4841702719813992</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12529,99 +12529,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7774460619857191</v>
+        <v>3.399701455787147</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5429290753769469</v>
+        <v>3.1886361678392525</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2949014414345568</v>
+        <v>2.9654112972911011</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.365980810279229</v>
+        <v>3.029382729251306</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2945248772376288</v>
+        <v>2.9650723895138662</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3331436294096903</v>
+        <v>2.9998292664687214</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.432361302121425</v>
+        <v>3.989125171909282</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5669691708299576</v>
+        <v>5.0102722537469626</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8838929157407218</v>
+        <v>5.29550362416665</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6384948069982554</v>
+        <v>5.0746453262984295</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6209299978917127</v>
+        <v>5.0588369981025414</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0214445979642601</v>
+        <v>5.4193001381678334</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2086292707342716</v>
+        <v>5.5877663436608449</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7636497107958746</v>
+        <v>5.1872847397162873</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2513091147211011</v>
+        <v>4.726178203248991</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9755224512806464</v>
+        <v>4.4779702061525812</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0343032669162087</v>
+        <v>4.5308729402245875</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9271121302877781</v>
+        <v>4.4344009172590004</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.865579927362238</v>
+        <v>4.3790219346260146</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2386255961626214</v>
+        <v>4.7147630365463593</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4746800055064933</v>
+        <v>4.9272120049558437</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2373865623163089</v>
+        <v>4.7136479060846783</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6648367060892832</v>
+        <v>4.1983530354803547</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9436582935232516</v>
+        <v>3.5492924641709265</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12630,99 +12630,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39473736153910993</v>
+        <v>0.35526362538519896</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30599501756191705</v>
+        <v>0.27539551580572535</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23198148407641181</v>
+        <v>0.20878333566877064</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28193032480784441</v>
+        <v>0.25373729232705999</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23875348377432448</v>
+        <v>0.21487813539689204</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19101226781272296</v>
+        <v>0.17191104103145066</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43166475534583643</v>
+        <v>0.38849827981125273</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80718400517359135</v>
+        <v>0.72646560465623222</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98785357435949595</v>
+        <v>0.88906821692354632</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0355626220755787</v>
+        <v>0.93200635986802094</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0492748773375316</v>
+        <v>0.9443473896037784</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9622118325796597</v>
+        <v>0.86599064932169367</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0351131189863341</v>
+        <v>0.93160180708770068</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95216075535621725</v>
+        <v>0.85694467982059552</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83948719001067584</v>
+        <v>0.75553847100960825</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77642748078784207</v>
+        <v>0.69878473270905783</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70827466858874222</v>
+        <v>0.63744720172986802</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66815680198966521</v>
+        <v>0.60134112179069876</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85453252546283809</v>
+        <v>0.76907927291655431</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98459172531285921</v>
+        <v>0.88613255278157332</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.099562151530312</v>
+        <v>0.98960593637728089</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1222944230854657</v>
+        <v>1.0100649807769191</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8408023195938118</v>
+        <v>0.75672208763443061</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59190571290235416</v>
+        <v>0.53271514161211875</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -12731,99 +12731,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5103694403303409</v>
+        <v>3.1593324962973068</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1653314696158357</v>
+        <v>2.8487983226542526</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9323439386558392</v>
+        <v>2.6391095447902555</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8552663363780693</v>
+        <v>2.5697397027402626</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9435865234315526</v>
+        <v>2.6492278710883972</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9241938500571694</v>
+        <v>2.6317744650514525</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2030834035852047</v>
+        <v>2.8827750632266849</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7490222089267493</v>
+        <v>3.3741199880340744</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1988962471311346</v>
+        <v>3.779006622418021</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4612466858472084</v>
+        <v>4.0151220172624873</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8271589001997697</v>
+        <v>4.3444430101797931</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1189960028686761</v>
+        <v>4.6070964025818091</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2037560624762937</v>
+        <v>4.6833804562286643</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9043560640171568</v>
+        <v>4.4139204576154416</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6552993303341772</v>
+        <v>4.1897693973007595</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5725036803574612</v>
+        <v>4.1152533123217152</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5373890098031122</v>
+        <v>4.083650108822801</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4822381667981155</v>
+        <v>4.0340143501183041</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5658939306290032</v>
+        <v>4.1093045375661026</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6556982607744315</v>
+        <v>4.1901284346969883</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0793358589927262</v>
+        <v>4.5714022730934536</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0377337388121477</v>
+        <v>4.533960364930933</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7691280363832771</v>
+        <v>4.2922152327449501</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1563657068733795</v>
+        <v>3.7407291361860415</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -12832,99 +12832,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4281646711877807</v>
+        <v>4.8853482040690031</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2719126786730239</v>
+        <v>4.7447214108057212</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.950639839845282</v>
+        <v>4.4555758558607534</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0999817996360903</v>
+        <v>4.5899836196724815</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1859101639888587</v>
+        <v>4.6673191475899731</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1494241641270522</v>
+        <v>4.6344817477143465</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4262188395867978</v>
+        <v>4.8835969556281187</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6192225704196908</v>
+        <v>5.957300313377722</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.948103443968046</v>
+        <v>6.2532930995712421</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0333921684869587</v>
+        <v>6.3300529516382626</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1089656961457823</v>
+        <v>6.3980691265312046</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4810586884650156</v>
+        <v>6.7329528196185144</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3784242556325159</v>
+        <v>6.6405818300692649</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0270428505381544</v>
+        <v>6.3243385654843403</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6083936033032975</v>
+        <v>5.9475542429729673</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4313538291754559</v>
+        <v>5.7882184462579103</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6567006875887005</v>
+        <v>5.9910306188298303</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4451646332307808</v>
+        <v>5.8006481699077037</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1480142731957983</v>
+        <v>5.5332128458762186</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2544920931856538</v>
+        <v>5.629042883867089</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4557939417703221</v>
+        <v>5.81021454759329</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1164472408212367</v>
+        <v>5.5048025167391135</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6279026979251663</v>
+        <v>5.0651124281326503</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5795275836406546</v>
+        <v>5.0215748252765895</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -12933,99 +12933,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8147141511118225</v>
+        <v>2.53324273600064</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5546712828626479</v>
+        <v>2.2992041545763833</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5099065766648749</v>
+        <v>2.2589159189983872</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5527013605920263</v>
+        <v>2.2974312245328239</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4924905496399115</v>
+        <v>2.2432414946759205</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6373510332393719</v>
+        <v>2.3736159299154349</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2476818545670558</v>
+        <v>2.9229136691103506</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7310315138739236</v>
+        <v>3.3579283624865313</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3085741169903615</v>
+        <v>3.8777167052913257</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6088322878442982</v>
+        <v>4.1479490590598687</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.662292001355187</v>
+        <v>4.1960628012196688</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8388014492823137</v>
+        <v>4.3549213043540824</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.752733047307248</v>
+        <v>4.2774597425765233</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7869010748995082</v>
+        <v>4.3082109674095577</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6194276326830073</v>
+        <v>4.1574848694147066</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.317672450649706</v>
+        <v>3.8859052055847361</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3564830205860794</v>
+        <v>3.9208347185274715</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1949461467913016</v>
+        <v>3.7754515321121711</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.15351627588515</v>
+        <v>3.7381646482966344</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2219363978388724</v>
+        <v>3.7997427580549847</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2897361603865596</v>
+        <v>3.8607625443479039</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7590445075664616</v>
+        <v>3.3831400568098151</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5893290388671226</v>
+        <v>3.2303961349804102</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1051240483255089</v>
+        <v>2.7946116434929582</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13034,99 +13034,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7936694149622465</v>
+        <v>1.6143024734660221</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6777038527050332</v>
+        <v>1.5099334674345297</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6113248674879386</v>
+        <v>1.4501923807391448</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5930224419322327</v>
+        <v>1.4337201977390095</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6553567714244206</v>
+        <v>1.4898210942819785</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7802152120084014</v>
+        <v>1.6021936908075611</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8058987378031826</v>
+        <v>2.5253088640228643</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3853090129966836</v>
+        <v>3.0467781116970158</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6723553752561324</v>
+        <v>3.3051198377305191</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6842633952313739</v>
+        <v>3.3158370557082368</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8876563968078148</v>
+        <v>3.4988907571270338</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1034540886517199</v>
+        <v>3.693108679786548</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.991917164900932</v>
+        <v>3.5927254484108389</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6440092160865172</v>
+        <v>3.2796082944778657</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.182915152706471</v>
+        <v>2.864623637435824</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0435992087397805</v>
+        <v>2.7392392878658027</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9177668145426772</v>
+        <v>2.6259901330884099</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.847828802829238</v>
+        <v>2.5630459225463142</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8408433767663697</v>
+        <v>2.5567590390897323</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9388070292806492</v>
+        <v>2.644926326352584</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8810205170671064</v>
+        <v>2.5929184653603956</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6616693547731884</v>
+        <v>2.3955024192958696</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2328001864864717</v>
+        <v>2.0095201678378243</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9792725836096836</v>
+        <v>1.7813453252487153</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13135,99 +13135,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7375893981834469</v>
+        <v>1.5638304583651024</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6051858703583075</v>
+        <v>1.4446672833224767</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.554004692236971</v>
+        <v>1.398604223013274</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4595207268244819</v>
+        <v>1.3135686541420337</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4796247951083485</v>
+        <v>1.3316623155975138</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4658206401567637</v>
+        <v>1.3192385761410874</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4383414294096766</v>
+        <v>1.2945072864687088</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6515567356342473</v>
+        <v>1.4864010620708228</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4938060114598715</v>
+        <v>1.3444254103138844</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5852740381206485</v>
+        <v>1.4267466343085837</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7415531873902708</v>
+        <v>1.5673978686512438</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9541054457789722</v>
+        <v>1.7586949012010751</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9889504665677085</v>
+        <v>1.7900554199109378</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9232461108597658</v>
+        <v>1.7309214997737894</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8093819021481368</v>
+        <v>1.6284437119333233</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8298633396242798</v>
+        <v>1.646877005661852</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8422096164302122</v>
+        <v>1.6579886547871909</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8053625445858918</v>
+        <v>1.6248262901273027</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8343566973891381</v>
+        <v>1.6509210276502244</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9411040961156039</v>
+        <v>1.7469936865040436</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0482152659266357</v>
+        <v>1.8433937393339723</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9898189934124899</v>
+        <v>1.790837094071241</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.741251953395373</v>
+        <v>1.5671267580558357</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7750255687810785</v>
+        <v>1.5975230119029709</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13236,99 +13236,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6221647959787289</v>
+        <v>2.3599483163808563</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4244603137669336</v>
+        <v>2.1820142823902402</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.339197439858471</v>
+        <v>2.105277695872624</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.345024588103553</v>
+        <v>2.1105221292931979</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3514964784324235</v>
+        <v>2.116346830589181</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3972452677681289</v>
+        <v>2.1575207409913162</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7856172588041206</v>
+        <v>2.5070555329237085</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2581660232343665</v>
+        <v>2.93234942091093</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5426314796453422</v>
+        <v>3.1883683316808082</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7301410587979915</v>
+        <v>3.3571269529181929</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7507758557802484</v>
+        <v>3.3756982702022236</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.87409057572434</v>
+        <v>3.4866815181519062</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9272548519960555</v>
+        <v>3.5345293667964501</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7476835292835964</v>
+        <v>3.3729151763552365</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6141327134056072</v>
+        <v>3.2527194420650467</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3800198384081344</v>
+        <v>3.0420178545673209</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3040025294407336</v>
+        <v>2.9736022764966608</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2933175302180477</v>
+        <v>2.963985777196243</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.363157877054574</v>
+        <v>3.0268420893491164</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5657330191405587</v>
+        <v>3.2091597172265032</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8224936490736421</v>
+        <v>3.4402442841662775</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6177455522626163</v>
+        <v>3.2559709970363544</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2759600902810648</v>
+        <v>2.9483640812529579</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8346210349957177</v>
+        <v>2.551158931496146</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -13337,99 +13337,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86586241671942776</v>
+        <v>0.77927617504748503</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77817675146564425</v>
+        <v>0.70035907631907979</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73158096496468961</v>
+        <v>0.65842286846822062</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70731939165692925</v>
+        <v>0.63658745249123638</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71746897821318889</v>
+        <v>0.64572208039186996</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77170018506084881</v>
+        <v>0.69453016655476396</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91039567097011398</v>
+        <v>0.81935610387310254</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.093718749482079</v>
+        <v>0.98434687453387104</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2269670567892015</v>
+        <v>1.1042703511102814</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3122278471802897</v>
+        <v>1.1810050624622608</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3977498269937136</v>
+        <v>1.2579748442943421</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4487681908596399</v>
+        <v>1.303891371773676</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4078376854017089</v>
+        <v>1.267053916861538</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3305469842816005</v>
+        <v>1.1974922858534405</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.243610276440869</v>
+        <v>1.1192492487967822</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1741098625668305</v>
+        <v>1.0566988763101475</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1652941020052952</v>
+        <v>1.0487646918047657</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2271177448156518</v>
+        <v>1.1044059703340867</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2990244357921878</v>
+        <v>1.1691219922129692</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3414855886076964</v>
+        <v>1.2073370297469268</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4754113744761377</v>
+        <v>1.327870237028524</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3863879371719974</v>
+        <v>1.2477491434547976</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2592790255461248</v>
+        <v>1.1333511229915123</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.061085970348264</v>
+        <v>0.95497737331343757</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -13438,99 +13438,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7193128043813655</v>
+        <v>5.1473815239432295</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6292162017333816</v>
+        <v>5.0662945815600438</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8796991859261194</v>
+        <v>5.2917292673335075</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3554832708391329</v>
+        <v>4.8199349437552197</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.996591570876129</v>
+        <v>4.4969324137885165</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9467706060235326</v>
+        <v>4.452093545421179</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1169333838051845</v>
+        <v>4.605240045424666</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4103120801899927</v>
+        <v>4.8692808721709939</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8210802737752649</v>
+        <v>4.3389722463977378</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9939277867893512</v>
+        <v>3.5945350081104164</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2945871562973812</v>
+        <v>4.7651284406676444</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7173381547360957</v>
+        <v>5.1456043392624862</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7041695357205091</v>
+        <v>5.1337525821484586</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7325188043819626</v>
+        <v>5.1592669239437665</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9137479921076963</v>
+        <v>4.4223731928969272</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1380828048646432</v>
+        <v>5.5242745243781792</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6661063802894347</v>
+        <v>5.0994957422604923</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5146605572616609</v>
+        <v>4.9631945015354955</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6828091735429895</v>
+        <v>5.1145282561886907</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1269858532181134</v>
+        <v>5.514287267896302</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4493511851701877</v>
+        <v>5.804416066653169</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4240568067755968</v>
+        <v>5.781651126098037</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3962374815474616</v>
+        <v>5.7566137333927161</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.462944147224305</v>
+        <v>5.8166497325018751</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -13539,99 +13539,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9593895474868823</v>
+        <v>8.9634505927381944</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8170665394475982</v>
+        <v>8.8353598855028377</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6904191308661485</v>
+        <v>8.7213772177795335</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6414221221599608</v>
+        <v>8.6772799099439641</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5690776123649108</v>
+        <v>8.612169851128419</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7123425951824682</v>
+        <v>8.7411083356642223</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.965519388999294</v>
+        <v>9.8689674500993636</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.453916795318984</v>
+        <v>10.308525115787086</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.166543095138476</v>
+        <v>10.949888785624628</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.722889761091654</v>
+        <v>10.550600784982489</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.920720272428252</v>
+        <v>10.728648245185427</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.999862569394777</v>
+        <v>10.7998763124553</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.191468608090682</v>
+        <v>10.972321747281613</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.970551725896719</v>
+        <v>10.773496553307048</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.623689106949714</v>
+        <v>10.461320196254743</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.568289437514679</v>
+        <v>10.411460493763212</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.646333783961929</v>
+        <v>10.481700405565737</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.77385792323782</v>
+        <v>10.596472130914039</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.151139726934788</v>
+        <v>10.03602575424131</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.475445969756471</v>
+        <v>10.327901372780826</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.671260962149608</v>
+        <v>10.504134865934647</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.198231236674614</v>
+        <v>10.078408113007153</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.15590716270783</v>
+        <v>9.1403164464370477</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.014681750042813</v>
+        <v>9.0132135750385327</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -13640,99 +13640,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32786304374265096</v>
+        <v>0.29507673936838585</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30673587372275463</v>
+        <v>0.27606228635047914</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29796676737696565</v>
+        <v>0.26817009063926911</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29127233924068274</v>
+        <v>0.2621451053166145</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2950708202849367</v>
+        <v>0.26556373825644303</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31344466155548523</v>
+        <v>0.28210019539993669</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36774632128041324</v>
+        <v>0.33097168915237196</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42634832140497575</v>
+        <v>0.38371348926447812</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47018387355922497</v>
+        <v>0.42316548620330252</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50403244427167559</v>
+        <v>0.453629199844508</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54233032687601068</v>
+        <v>0.48809729418840964</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55726200803383663</v>
+        <v>0.50153580723045299</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54124530758104639</v>
+        <v>0.48712077682294169</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49695684294548587</v>
+        <v>0.4472611586509373</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43806886033104647</v>
+        <v>0.39426197429794185</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43459028601694455</v>
+        <v>0.39113125741525007</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43790600266902485</v>
+        <v>0.39411540240212239</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.428317703065976</v>
+        <v>0.38548593275937842</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44133716512469867</v>
+        <v>0.39720344861222884</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47119498717824226</v>
+        <v>0.42407548846041809</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48597045188567678</v>
+        <v>0.43737340669710906</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44306728559451469</v>
+        <v>0.39876055703506325</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40402662115419335</v>
+        <v>0.36362395903877398</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35147049519238316</v>
+        <v>0.31632344567314485</v>
       </c>
     </row>
   </sheetData>
@@ -19862,99 +19862,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52143443517675314</v>
+        <v>0.46929099165907784</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56481849937577455</v>
+        <v>0.50833664943819712</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53828316540577714</v>
+        <v>0.48445484886519941</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52767522081143259</v>
+        <v>0.47490769873028932</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51365461287022096</v>
+        <v>0.46228915158319883</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54323658985080858</v>
+        <v>0.48891293086572774</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5328147609703856</v>
+        <v>0.47953328487334701</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95158494691827789</v>
+        <v>0.85642645222645009</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1136129231207808</v>
+        <v>1.0022516308087028</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1009300438233141</v>
+        <v>0.99083703944098278</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0651257250720749</v>
+        <v>0.95861315256486745</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0708435636300717</v>
+        <v>0.96375920726706454</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1349007212812665</v>
+        <v>1.0214106491531398</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.108461087052476</v>
+        <v>0.99761497834722834</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79956306685105849</v>
+        <v>0.7196067601659526</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0311549923693437</v>
+        <v>0.9280394931324093</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.036708931506632</v>
+        <v>0.93303803835596877</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95946936337541333</v>
+        <v>0.86352242703787196</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76760187087144716</v>
+        <v>0.69084168378430233</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71141328231796641</v>
+        <v>0.64027195408616977</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74004754300933351</v>
+        <v>0.66604278870840017</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73315747732688707</v>
+        <v>0.6598417295941984</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52659094337492729</v>
+        <v>0.47393184903743457</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5159742582673561</v>
+        <v>0.46437683244062056</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19963,99 +19963,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1027307189996937E-2</v>
+        <v>-1.8924576470997243E-2</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.1178115982165442E-2</v>
+        <v>-4.6060304383948897E-2</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.5947062326363151E-2</v>
+        <v>-5.035235609372684E-2</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.9375611972539317E-2</v>
+        <v>-6.2438050775285393E-2</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8039066624815384E-2</v>
+        <v>-7.0235159962333843E-2</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2977713612170828E-2</v>
+        <v>-6.5679942250953749E-2</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.4444722930557969E-2</v>
+        <v>-6.7000250637502173E-2</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11680161701019197</v>
+        <v>0.10512145530917277</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.16311472386983458</v>
+        <v>0.14680325148285112</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20933604942151363</v>
+        <v>0.18840244447936227</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11227829289885852</v>
+        <v>0.10105046360897267</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6246179673435189E-2</v>
+        <v>7.7621561706091663E-2</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0909780253078747E-2</v>
+        <v>4.581880222777087E-2</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7629774363137829E-2</v>
+        <v>6.0866796926824049E-2</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.38731596264361E-2</v>
+        <v>1.248584366379249E-2</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.100811804212333E-2</v>
+        <v>9.9073062379109976E-3</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9181882974590239E-2</v>
+        <v>1.7263694677131212E-2</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5217519507024922E-2</v>
+        <v>4.9695767556322434E-2</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14693108553349823</v>
+        <v>0.13223797698014841</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.16742326417307424</v>
+        <v>0.15068093775576683</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12055263884335009</v>
+        <v>0.10849737495901508</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7769854350709484E-2</v>
+        <v>7.8992868915638531E-2</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8068325284620749E-2</v>
+        <v>2.5261492756158674E-2</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6731508700395636E-2</v>
+        <v>-1.5058357830356073E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20064,99 +20064,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17286676110531132</v>
+        <v>-0.15558008499478021</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29718452498465125</v>
+        <v>-0.26746607248618615</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44006393081421635</v>
+        <v>-0.39605753773279467</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42661860253948941</v>
+        <v>-0.3839567422855405</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43658152093403918</v>
+        <v>-0.39292336884063528</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42827796233969789</v>
+        <v>-0.38545016610572813</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15109868851375646</v>
+        <v>-0.1359888196623808</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25143116611652272</v>
+        <v>0.22628804950487044</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36788343487548641</v>
+        <v>0.3310950913879378</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37962688854661691</v>
+        <v>0.34166419969195522</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31893336844710746</v>
+        <v>0.28704003160239672</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41323450915607257</v>
+        <v>0.37191105824046533</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35973383953377047</v>
+        <v>0.32376045558039346</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27671161493473023</v>
+        <v>0.24904045344125722</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15054208158252613</v>
+        <v>0.13548787342427351</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8178490224440054E-2</v>
+        <v>4.336064120199605E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8847553191806117E-2</v>
+        <v>8.8962797872625524E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4826168398303528E-2</v>
+        <v>6.7343551558473172E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.6112761148440465E-2</v>
+        <v>-5.0501485033596423E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6922496231017415E-2</v>
+        <v>4.2230246607915675E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.987565458032277E-2</v>
+        <v>8.9888089122290502E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6203265496385204E-2</v>
+        <v>2.3582938946746682E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24852759919106682</v>
+        <v>-0.22367483927196014</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39608389383297177</v>
+        <v>-0.35647550444967463</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20165,99 +20165,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.57981580738482985</v>
+        <v>-0.52183422664634693</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58519602536893911</v>
+        <v>-0.52667642283204519</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.59888045699262482</v>
+        <v>-0.53899241129336239</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.60067213987636836</v>
+        <v>-0.54060492588873155</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.61121918499413164</v>
+        <v>-0.55009726649471846</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.63742750144172677</v>
+        <v>-0.57368475129755414</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58065555169982563</v>
+        <v>-0.52258999652984306</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40376695885538749</v>
+        <v>-0.36339026296984878</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32229481988397202</v>
+        <v>-0.29006533789557482</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34592294077310881</v>
+        <v>-0.31133064669579796</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41095976197992734</v>
+        <v>-0.36986378578193468</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4535823242550403</v>
+        <v>-0.40822409182953628</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43729595036030378</v>
+        <v>-0.39356635532427342</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47063319118385483</v>
+        <v>-0.42356987206546942</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45410800200222073</v>
+        <v>-0.4086972018019987</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.50851896746817737</v>
+        <v>-0.4576670707213597</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.54687358646040118</v>
+        <v>-0.492186227814361</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49053829539665961</v>
+        <v>-0.44148446585699364</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36132382767595411</v>
+        <v>-0.32519144490835872</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33353175390801942</v>
+        <v>-0.30017857851721746</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34143302791481833</v>
+        <v>-0.30728972512333652</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40502342637548605</v>
+        <v>-0.36452108373793746</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49088360683297549</v>
+        <v>-0.44179524614967791</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.51329835902163523</v>
+        <v>-0.46196852311947173</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20266,99 +20266,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28143719018146779</v>
+        <v>-0.25329347116332102</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34688088918458532</v>
+        <v>-0.31219280026612684</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39923739997615415</v>
+        <v>-0.35931365997853876</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40874818720840794</v>
+        <v>-0.36787336848756713</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4157600321137383</v>
+        <v>-0.37418402890236446</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45118759331132396</v>
+        <v>-0.40606883398019156</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42398511549970991</v>
+        <v>-0.38158660394973892</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23009602318055458</v>
+        <v>-0.20708642086249915</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.5714300288806237E-2</v>
+        <v>-5.0142870259925615E-2</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6055274489312962E-2</v>
+        <v>5.9449747040381661E-2</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.16458977130354574</v>
+        <v>0.14813079417319119</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19016813942991917</v>
+        <v>0.17115132548692727</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14951074442839057</v>
+        <v>0.13455966998555152</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8239462072734512E-2</v>
+        <v>8.8415515865461064E-2</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.002345773873084E-2</v>
+        <v>2.7021111964857757E-2</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4668924630735305E-3</v>
+        <v>-2.2202032167661775E-3</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1346373410299029E-2</v>
+        <v>-1.9211736069269125E-2</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5712210441327078E-2</v>
+        <v>-2.3140989397194372E-2</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6439528205957139E-2</v>
+        <v>-1.4795575385361427E-2</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.4815814989660518E-2</v>
+        <v>-4.9334233490694462E-2</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6293648859317214E-2</v>
+        <v>4.1664283973385494E-2</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1533818944968763E-2</v>
+        <v>1.9380437050471887E-2</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4607319330864725E-2</v>
+        <v>-1.3146587397778254E-2</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10439076300382871</v>
+        <v>-9.3951686703445836E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20367,99 +20367,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68468139926295446</v>
+        <v>0.61621325933665894</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76050441628916288</v>
+        <v>0.6844539746602466</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60206907119277242</v>
+        <v>0.54186216407349519</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68424171396012423</v>
+        <v>0.61581754256411181</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69979262595207337</v>
+        <v>0.62981336335686611</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70514833893070294</v>
+        <v>0.63463350503763261</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65007155944387784</v>
+        <v>0.58506440349949007</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.120624985059171</v>
+        <v>1.0085624865532539</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2826903777611847</v>
+        <v>1.154421339985066</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3310244333368368</v>
+        <v>1.1979219900031532</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1861833801153119</v>
+        <v>1.0675650421037806</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.394272408873912</v>
+        <v>1.2548451679865207</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.433824691265194</v>
+        <v>1.2904422221386747</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3206313080650869</v>
+        <v>1.1885681772585781</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.152592849872802</v>
+        <v>1.0373335648855218</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0457005953901113</v>
+        <v>0.94113053585110018</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2085518332332317</v>
+        <v>1.0876966499099086</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1706000315460614</v>
+        <v>1.0535400283914551</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95235477896562692</v>
+        <v>0.85711930106906431</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91469891961274985</v>
+        <v>0.82322902765147499</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0284558192875006</v>
+        <v>0.92561023735875059</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86425594984892129</v>
+        <v>0.77783035486402918</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69541799710909535</v>
+        <v>0.6258761973981859</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74344391703854851</v>
+        <v>0.66909952533469375</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20468,99 +20468,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38425145660732141</v>
+        <v>-0.34582631094658928</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39690764478448765</v>
+        <v>-0.35721688030603888</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42397950420860003</v>
+        <v>-0.38158155378774</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43183320456868979</v>
+        <v>-0.38864988411182083</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41860702838564229</v>
+        <v>-0.3767463255470781</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44381191023848154</v>
+        <v>-0.39943071921463341</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41406429362665098</v>
+        <v>-0.37265786426398589</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24257405089195525</v>
+        <v>-0.21831664580275975</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12038801729446054</v>
+        <v>-0.10834921556501448</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.29730286027972E-2</v>
+        <v>-8.3675725742517471E-2</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4182971304941759E-2</v>
+        <v>-3.0764674174447584E-2</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.6816188971600755E-2</v>
+        <v>-5.1134570074440687E-2</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.309207477113403E-2</v>
+        <v>-5.6782867294020635E-2</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.9716389390933137E-2</v>
+        <v>-6.2744750451839817E-2</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11973360737437098</v>
+        <v>-0.1077602466369339</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15474700635695943</v>
+        <v>-0.13927230572126348</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1768870499366855</v>
+        <v>-0.15919834494301696</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20220763408673437</v>
+        <v>-0.18198687067806094</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18907827437863781</v>
+        <v>-0.17017044694077404</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21753775242786083</v>
+        <v>-0.19578397718507476</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17952198517888224</v>
+        <v>-0.16156978666099403</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24201243641612685</v>
+        <v>-0.21781119277451416</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28949046230518682</v>
+        <v>-0.26054141607466819</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3101547757835772</v>
+        <v>-0.27913929820521954</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20569,99 +20569,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6661174559941445</v>
+        <v>-1.4995057103947302</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6800838411849059</v>
+        <v>-1.5120754570664157</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6952114834654572</v>
+        <v>-1.5256903351189115</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7023690798816409</v>
+        <v>-1.5321321718934768</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6874622115216342</v>
+        <v>-1.5187159903694709</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.654897525523819</v>
+        <v>-1.489407772971437</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4555439787709603</v>
+        <v>-1.3099895808938642</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2629756865168853</v>
+        <v>-1.1366781178651968</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2340658175159003</v>
+        <v>-1.1106592357643104</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2071698811440099</v>
+        <v>-1.0864528930296089</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.178829088610055</v>
+        <v>-1.0609461797490496</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1738174322220498</v>
+        <v>-1.056435688999845</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2184006987818268</v>
+        <v>-1.096560628903644</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2625784173660524</v>
+        <v>-1.1363205756294472</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3568150834720329</v>
+        <v>-1.2211335751248296</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3955394123625502</v>
+        <v>-1.2559854711262954</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4226850354046066</v>
+        <v>-1.2804165318641461</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4212437780452791</v>
+        <v>-1.2791194002407513</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4373520348808617</v>
+        <v>-1.2936168313927756</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4793597937962719</v>
+        <v>-1.3314238144166446</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5519269400501272</v>
+        <v>-1.3967342460451144</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5994161845753512</v>
+        <v>-1.4394745661178161</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6303161678136309</v>
+        <v>-1.4672845510322676</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6534624832021132</v>
+        <v>-1.4881162348819019</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20670,99 +20670,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6245200750263797E-2</v>
+        <v>-1.4620680675237417E-2</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.0340316551927967E-2</v>
+        <v>-5.4306284896735176E-2</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.9921205462498498E-2</v>
+        <v>-6.2929084916248657E-2</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.4985580633089031E-2</v>
+        <v>-7.6487022569780141E-2</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.6556458027843008E-2</v>
+        <v>-7.7900812225058708E-2</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.508087735595265E-2</v>
+        <v>-8.5572789620357387E-2</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16065527366768451</v>
+        <v>-0.14458974630091606</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.087854618140757E-2</v>
+        <v>-6.3790691563266819E-2</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2414193191471798E-2</v>
+        <v>-6.5172773872324619E-2</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1209105919056115E-2</v>
+        <v>-1.9088195327150507E-2</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.9110656971792442E-3</v>
+        <v>-8.0199591274613194E-3</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4161418469744112E-2</v>
+        <v>2.1745276622769705E-2</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3502630811951578E-2</v>
+        <v>4.8152367730756422E-2</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7748031320348117E-2</v>
+        <v>3.3973228188313304E-2</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3906361738530576E-2</v>
+        <v>1.2515725564677518E-2</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2500399243494903E-2</v>
+        <v>5.6250359319145418E-2</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5979759864005362E-2</v>
+        <v>4.1381783877604827E-2</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7410118738343719E-2</v>
+        <v>3.366910686450935E-2</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5451789979171054E-2</v>
+        <v>3.1906610981253948E-2</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4207342144530015E-2</v>
+        <v>3.0786607930077019E-2</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4358817820100458E-2</v>
+        <v>5.7922936038090421E-2</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8689392897993709E-2</v>
+        <v>6.1820453608194346E-2</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2737753147096492E-2</v>
+        <v>-1.1463977832386844E-2</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9338012611757986E-2</v>
+        <v>-1.7404211350582188E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -20771,99 +20771,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2384148569562505</v>
+        <v>-0.21457337126062548</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26819988612153572</v>
+        <v>-0.24137989750938216</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27492040952371832</v>
+        <v>-0.24742836857134651</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27018096783748718</v>
+        <v>-0.24316287105373846</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27628612359401133</v>
+        <v>-0.24865751123461022</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29002807687065646</v>
+        <v>-0.26102526918359081</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13627421379536259</v>
+        <v>-0.12264679241582632</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.82386970586105E-3</v>
+        <v>7.9414827352749448E-3</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8672683736438171E-2</v>
+        <v>8.8805415362794363E-2</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11531741078135706</v>
+        <v>0.10378566970322134</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5777437699599945E-2</v>
+        <v>4.1199693929639951E-2</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13149404486894517</v>
+        <v>0.11834464038205064</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12439383593982919</v>
+        <v>0.11195445234584626</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10276876051229607</v>
+        <v>9.2491884461066459E-2</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.238994520027695E-2</v>
+        <v>5.6150950680249251E-2</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.1758186680857087E-3</v>
+        <v>-3.7582368012771383E-3</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.0929858825475956E-2</v>
+        <v>-2.7836872942928359E-2</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.6978637805842868E-2</v>
+        <v>-2.4280774025258581E-2</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.926173930243141E-2</v>
+        <v>-1.733556537218827E-2</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1395171156297616E-3</v>
+        <v>7.3255654040667853E-3</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9850671800737E-2</v>
+        <v>2.68656046206633E-2</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.6459834087574845E-2</v>
+        <v>-2.3813850678817361E-2</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12797429346431471</v>
+        <v>-0.11517686411788326</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1941948327095854</v>
+        <v>-0.17477534943862685</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -20872,99 +20872,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30228336552580742</v>
+        <v>-0.2720550289732267</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32398426835838062</v>
+        <v>-0.29158584152254258</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33790878984493339</v>
+        <v>-0.3041179108604401</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34347142214278076</v>
+        <v>-0.30912427992850267</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33426164792630908</v>
+        <v>-0.30083548313367814</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33704658458127573</v>
+        <v>-0.3033419261231482</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27714687670919608</v>
+        <v>-0.24943218903827649</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22728498336757685</v>
+        <v>-0.20455648503081919</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19365691824388767</v>
+        <v>-0.1742912264194989</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16345040693040644</v>
+        <v>-0.14710536623736581</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.163637520996403</v>
+        <v>-0.14727376889676272</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16980574656010633</v>
+        <v>-0.1528251719040957</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19038365720436073</v>
+        <v>-0.17134529148392469</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20316085117750715</v>
+        <v>-0.18284476605975641</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22274653402500283</v>
+        <v>-0.20047188062250254</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22407645342465049</v>
+        <v>-0.20166880808218546</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22533679991743616</v>
+        <v>-0.20280311992569253</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18345400469180606</v>
+        <v>-0.16510860422262547</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16114079635274542</v>
+        <v>-0.14502671671747089</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17421334469789643</v>
+        <v>-0.15679201022810679</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1574770178635731</v>
+        <v>-0.14172931607721578</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17895635361841969</v>
+        <v>-0.16106071825657772</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20638409201583258</v>
+        <v>-0.18574568281424933</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23033305485030625</v>
+        <v>-0.20729974936527565</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -20973,99 +20973,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20371957319455675</v>
+        <v>-0.18334761587510107</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13625245919065887</v>
+        <v>-0.122627213271593</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24012503406089833</v>
+        <v>-0.21611253065480851</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20725213349577115</v>
+        <v>-0.18652692014619404</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3151425111823361</v>
+        <v>-0.28362826006410247</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14850304414749563</v>
+        <v>-0.13365273973274605</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.53020040440831395</v>
+        <v>-0.47718036396748259</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48433568785022751</v>
+        <v>-0.43590211906520476</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46335843637593288</v>
+        <v>-0.41702259273833958</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.54472741756099541</v>
+        <v>-0.49025467580489585</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44836419839815983</v>
+        <v>-0.40352777855834387</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39861659861188931</v>
+        <v>-0.35875493875070036</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11357304110465097</v>
+        <v>0.10221573699418586</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7408203860024327E-2</v>
+        <v>5.1667383474021902E-2</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45785619056743443</v>
+        <v>-0.41207057151069099</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17505237083076694</v>
+        <v>-0.15754713374769025</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19792391841948073</v>
+        <v>-0.17813152657753267</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14279544560386581</v>
+        <v>-0.12851590104347924</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.8721598740688026E-2</v>
+        <v>-2.5849438866619223E-2</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23101546598116615</v>
+        <v>0.20791391938304954</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56806025905318458</v>
+        <v>0.51125423314786611</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64526735509260102</v>
+        <v>0.580740619583341</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62129932886336525</v>
+        <v>0.55916939597702875</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70641119511487116</v>
+        <v>0.63577007560338406</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21074,99 +21074,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40082328816653529</v>
+        <v>0.36074095934988176</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36839868319762931</v>
+        <v>0.33155881487786637</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28072841150686939</v>
+        <v>0.25265557035618247</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25643785442048589</v>
+        <v>0.23079406897843732</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23089809055636829</v>
+        <v>0.20780828150073147</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26832096294651725</v>
+        <v>0.24148886665186553</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91986867077362788</v>
+        <v>0.82788180369626507</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2035090464123397</v>
+        <v>1.0831581417711058</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5549297897353045</v>
+        <v>1.3994368107617741</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4917933336764682</v>
+        <v>1.3426140003088214</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5021419316564573</v>
+        <v>1.3519277384908113</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4806581526429681</v>
+        <v>1.3325923373786714</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5394539001530463</v>
+        <v>1.3855085101377418</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3867611353834706</v>
+        <v>1.2480850218451234</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2336094009371872</v>
+        <v>1.1102484608434686</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.167161975331197</v>
+        <v>1.0504457777980774</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1535037968156365</v>
+        <v>1.0381534171340729</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2005729955569149</v>
+        <v>1.0805156960012234</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9246923568015637</v>
+        <v>0.83222312112140739</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90031395657073832</v>
+        <v>0.81028256091366457</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98013400832247666</v>
+        <v>0.88212060749022903</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71153620984303967</v>
+        <v>0.64038258885873567</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33180831016433421</v>
+        <v>0.29862747914790078</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32284141567206198</v>
+        <v>0.29055727410485582</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -21175,99 +21175,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12835577050050537</v>
+        <v>0.11552019345045482</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12865185489280198</v>
+        <v>0.11578666940352178</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13016502911603739</v>
+        <v>0.11714852620443364</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13088964725794583</v>
+        <v>0.11780068253215124</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1352357027120866</v>
+        <v>0.12171213244087792</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12915956624868619</v>
+        <v>0.11624360962381756</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12050042068916116</v>
+        <v>0.10845037862024505</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11045258712344895</v>
+        <v>9.9407328411104057E-2</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3035869538749691E-2</v>
+        <v>8.3732282584874709E-2</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9884171730384581E-2</v>
+        <v>6.2895754557346126E-2</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3891572744061967E-2</v>
+        <v>6.6502415469655782E-2</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1582521985632081E-2</v>
+        <v>7.3424269787068869E-2</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.784745852212179E-2</v>
+        <v>6.1062712669909619E-2</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9525044111960703E-2</v>
+        <v>8.0572539700764639E-2</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5504214150296113E-2</v>
+        <v>8.5953792735266502E-2</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6163315930533053E-2</v>
+        <v>8.654698433747976E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.2338684375600513E-2</v>
+        <v>8.3104815938040477E-2</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3947155842368249E-2</v>
+        <v>8.4552440258131425E-2</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8545779107955747E-2</v>
+        <v>7.969120119716018E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10099781809695865</v>
+        <v>9.0898036287262785E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10560127476002759</v>
+        <v>9.5041147284024824E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12121268767693892</v>
+        <v>0.10909141890924502</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11253697262981172</v>
+        <v>0.10128327536683056</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11578397266910231</v>
+        <v>0.10420557540219209</v>
       </c>
     </row>
   </sheetData>
